--- a/docs/htr/golden_truth.xlsx
+++ b/docs/htr/golden_truth.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/docs/htr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10D45E1-DE98-A644-803F-5DD18DAC5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489E7E5-B850-3240-8EDC-4909BB0FF52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="1280" windowWidth="26540" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="eval_sample_extended" sheetId="1" r:id="rId1"/>
+    <sheet name="eval_sample" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>image_filename</t>
   </si>
@@ -34,9 +47,6 @@
     <t>major_issues</t>
   </si>
   <si>
-    <t>include_in_gt</t>
-  </si>
-  <si>
     <t>gt_status</t>
   </si>
   <si>
@@ -46,12 +56,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>planned</t>
-  </si>
-  <si>
     <t>collector_ids</t>
   </si>
   <si>
@@ -224,13 +228,94 @@
   </si>
   <si>
     <t xml:space="preserve">low contrast </t>
+  </si>
+  <si>
+    <t>page_id</t>
+  </si>
+  <si>
+    <t>era_vene_2_606</t>
+  </si>
+  <si>
+    <t>era_vene_2_607</t>
+  </si>
+  <si>
+    <t>era_vene_5_167</t>
+  </si>
+  <si>
+    <t>era_vene_5_168</t>
+  </si>
+  <si>
+    <t>era_vene_6_380</t>
+  </si>
+  <si>
+    <t>era_vene_6_381</t>
+  </si>
+  <si>
+    <t>era_vene_7_126</t>
+  </si>
+  <si>
+    <t>era_vene_7_127</t>
+  </si>
+  <si>
+    <t>rkm_vene_3_258</t>
+  </si>
+  <si>
+    <t>rkm_vene_3_259</t>
+  </si>
+  <si>
+    <t>era_vene_5_442</t>
+  </si>
+  <si>
+    <t>era_vene_5_443</t>
+  </si>
+  <si>
+    <t>era_vene_12_138</t>
+  </si>
+  <si>
+    <t>era_vene_12_139</t>
+  </si>
+  <si>
+    <t>era_vene_13_636</t>
+  </si>
+  <si>
+    <t>era_vene_13_637</t>
+  </si>
+  <si>
+    <t>era_vene_15_134</t>
+  </si>
+  <si>
+    <t>era_vene_15_135</t>
+  </si>
+  <si>
+    <t>era_vene_8_210</t>
+  </si>
+  <si>
+    <t>era_vene_8_211</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>CER_transkrib</t>
+  </si>
+  <si>
+    <t>WER_transkrib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2464	</t>
+  </si>
+  <si>
+    <t>p_CER_le_25_transkrib_weighted</t>
+  </si>
+  <si>
+    <t>p_CER_ge_50_transcrib_weighted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +351,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +369,26 @@
         <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -401,11 +509,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -425,9 +546,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -440,9 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -453,19 +568,70 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -704,989 +870,1303 @@
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="15" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
+      <c r="G2" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="H2" s="4">
         <v>606</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="5">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="K2" s="5">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P2" s="4">
+        <v>10.77</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="R2" s="4">
+        <f>IFERROR(
+  SUMIFS($L$2:$L$21,$C$2:$C$21,$C2,$P$2:$P$21,"&lt;=25")
+  /
+  SUMIF($C$2:$C$21,$C2,$L$2:$L$21),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="4">
+        <f>IFERROR(
+  SUMIFS($L$2:$L$21,$C$2:$C$21,$C2,$P$2:$P$21,"&gt;=50")
+  /
+  SUMIF($C$2:$C$21,$C2,$L$2:$L$21),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>53</v>
+      <c r="C3" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="H3" s="4">
         <v>607</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="5">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="K3" s="5">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5">
         <v>21</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
+      <c r="M3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="4">
+        <v>10.77</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R21" si="0">IFERROR(
+  SUMIFS($L$2:$L$21,$C$2:$C$21,$C3,$P$2:$P$21,"&lt;=25")
+  /
+  SUMIF($C$2:$C$21,$C3,$L$2:$L$21),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="4">
+        <f>IFERROR(
+  SUMIFS($L$2:$L$21,$C$2:$C$21,$C3,$P$2:$P$21,"&gt;=50")
+  /
+  SUMIF($C$2:$C$21,$C3,$L$2:$L$21),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>54</v>
+      <c r="C4" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="4">
         <v>167</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="5">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="K4" s="5">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5">
+        <v>17</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="4">
+        <v>49.18</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <f>IFERROR(
+  SUMIFS($L$2:$L$21,$C$2:$C$21,$C4,$P$2:$P$21,"&gt;=50")
+  /
+  SUMIF($C$2:$C$21,$C4,$L$2:$L$21),0)</f>
+        <v>0.5641025641025641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
+      <c r="C5" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="4">
         <v>168</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="5">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="K5" s="5">
-        <v>21</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="L5" s="5">
+        <v>22</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="4">
+        <v>52.06</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0.67130000000000001</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" ref="S5:S21" si="1">IFERROR(
+  SUMIFS($L$2:$L$21,$C$2:$C$21,$C5,$P$2:$P$21,"&gt;=50")
+  /
+  SUMIF($C$2:$C$21,$C5,$L$2:$L$21),0)</f>
+        <v>0.5641025641025641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>55</v>
+      <c r="C6" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="H6" s="4">
         <v>380</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="5">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="K6" s="5">
         <v>18</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>7</v>
+      <c r="L6" s="5">
+        <v>18</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="4">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="R6" s="4">
+        <f>IFERROR(
+  SUMIFS($L$2:$L$21,$C$2:$C$21,$C6,$P$2:$P$21,"&lt;=25")
+  /
+  SUMIF($C$2:$C$21,$C6,$L$2:$L$21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
+      <c r="C7" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="H7" s="4">
         <v>381</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="5">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="K7" s="5">
         <v>18</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>7</v>
+      <c r="L7" s="5">
+        <v>18</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="4">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>56</v>
+      <c r="C8" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="H8" s="4">
         <v>126</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="5">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="K8" s="5">
         <v>18</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>7</v>
+      <c r="L8" s="5">
+        <v>18</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>0.2717</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>56</v>
+      <c r="C9" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="H9" s="4">
         <v>127</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="5">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="K9" s="5">
         <v>18</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>7</v>
+      <c r="L9" s="5">
+        <v>18</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>64</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0.2717</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>57</v>
+      <c r="C10" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="H10" s="4">
         <v>258</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="5">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="K10" s="5">
         <v>19</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>63</v>
+      <c r="L10" s="5">
+        <v>19</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="4">
+        <v>10.41</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>57</v>
+      <c r="C11" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="H11" s="4">
         <v>259</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="5">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="K11" s="5">
         <v>19</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>41</v>
+      <c r="L11" s="5">
+        <v>19</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="4">
+        <v>10.41</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>58</v>
+      <c r="C12" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="H12" s="4">
         <v>442</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="20">
+        <v>30</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="15">
         <v>21</v>
       </c>
-      <c r="K12" s="20">
-        <v>19</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>7</v>
+      <c r="L12" s="15">
+        <v>17</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="4">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>0.94239999999999902</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>58</v>
+      <c r="C13" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="H13" s="4">
         <v>443</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="5">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="K13" s="5">
         <v>20</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>7</v>
+      <c r="L13" s="5">
+        <v>20</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="4">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>0.94239999999999902</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>59</v>
+      <c r="C14" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="4">
         <v>138</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="5">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="K14" s="5">
         <v>20</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>63</v>
+      <c r="L14" s="5">
+        <v>20</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="4">
+        <v>15.32</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0.45189999999999902</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>59</v>
+      <c r="C15" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="H15" s="4">
         <v>139</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="5">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="K15" s="5">
         <v>20</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>28</v>
+      <c r="L15" s="5">
+        <v>20</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="4">
+        <v>15.32</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>0.45189999999999902</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>60</v>
+      <c r="C16" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="H16" s="4">
         <v>636</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="5">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="K16" s="5">
         <v>20</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>63</v>
+      <c r="L16" s="5">
+        <v>20</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="4">
+        <v>13.41</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>60</v>
+      <c r="C17" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="H17" s="4">
         <v>637</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="5">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="K17" s="5">
         <v>20</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
+      <c r="L17" s="5">
+        <v>20</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="4">
+        <v>13.41</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>61</v>
+      <c r="C18" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="H18" s="4">
         <v>134</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="5">
+        <v>30</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="5">
         <v>20</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>12</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="M18" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="4">
+        <v>31.83</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>0.4703</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>61</v>
+      <c r="C19" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="H19" s="4">
         <v>135</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="5">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="5">
         <v>20</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="L19" s="5">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="4">
+        <v>31.83</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0.4703</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="H20" s="4">
         <v>210</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="5">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="K20" s="5">
         <v>20</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>63</v>
+      <c r="L20" s="5">
+        <v>19</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" s="4">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="14">
-        <v>1</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="15">
+      <c r="F21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="13">
         <v>211</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="I21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="14">
         <v>20</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="14">
         <v>14</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="12"/>
+      <c r="O21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="4">
+        <v>34.619999999999997</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1698,12 +2178,16 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1715,12 +2199,16 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1732,12 +2220,16 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1749,12 +2241,16 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="2"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1766,12 +2262,16 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1783,12 +2283,16 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1800,12 +2304,16 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1817,12 +2325,16 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1834,12 +2346,16 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1851,29 +2367,34 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A2:J2 B12:B13 A22:O31 N3:O21 F3:J3 D3:E21 A3:C7 A8:B11 A14:B21 L2:O2 K2:K3 L3:M3 G4:M5 F6:M11 F12:I13 L12:M13 J12:K12 F14:M21">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$L2="bad"</formula>
+  <conditionalFormatting sqref="A2:K2 O2:S2 L2:N3 F3:K3 A3:C7 O3:Q13 D3:E21 R3:S21 G4:I5 K4:N5 F6:N11 A8:B11 K12:L12 B12:B13 F12:J13 M12:N13 O14:P14 A14:B21 F14:N21 O15:Q21 A22:S31">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$M2="bad"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>$O2="done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:K13">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>$L12="bad"</formula>
+  <conditionalFormatting sqref="K13:L13">
+    <cfRule type="expression" dxfId="1" priority="51">
+      <formula>$M12="bad"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="0" priority="52">
       <formula>$O12="done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/htr/golden_truth.xlsx
+++ b/docs/htr/golden_truth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenia/Desktop/thesis/magic_tagger/docs/htr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489E7E5-B850-3240-8EDC-4909BB0FF52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA42C09D-06DE-9D46-9ADA-3EF64155CF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eval_sample" sheetId="1" r:id="rId1"/>
@@ -77,48 +77,24 @@
     <t>era_vene_2_605_4</t>
   </si>
   <si>
-    <t>Федор Коняев</t>
-  </si>
-  <si>
     <t>era_vene_5_167_9</t>
   </si>
   <si>
-    <t>Nina Valkevitš</t>
-  </si>
-  <si>
     <t>era_vene_6_379_6</t>
   </si>
   <si>
-    <t>M. Sokolov</t>
-  </si>
-  <si>
     <t>era_vene_7_125_1</t>
   </si>
   <si>
-    <t>Александр Кельнер</t>
-  </si>
-  <si>
     <t>rkm_vene_3_257_116</t>
   </si>
   <si>
-    <t>Ольга Гильдебрандт</t>
-  </si>
-  <si>
-    <t>Ольга Громова</t>
-  </si>
-  <si>
     <t>era_vene_13_635_20</t>
   </si>
   <si>
-    <t>Зоя Жемчужина</t>
-  </si>
-  <si>
     <t>era_vene_15_134_3</t>
   </si>
   <si>
-    <t>O. Brandt</t>
-  </si>
-  <si>
     <t>era_vene_02_606-607.pdf</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
     <t>era_vene_5_442_6</t>
   </si>
   <si>
-    <t>Maria Sokolova</t>
-  </si>
-  <si>
     <t>era_vene_05_442-443.pdf</t>
   </si>
   <si>
@@ -309,6 +282,33 @@
   </si>
   <si>
     <t>p_CER_ge_50_transcrib_weighted</t>
+  </si>
+  <si>
+    <t>Koniaev Fedor</t>
+  </si>
+  <si>
+    <t>Nina Valkevits</t>
+  </si>
+  <si>
+    <t>Sokolov M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sokolova Maria </t>
+  </si>
+  <si>
+    <t>Gromova Olga</t>
+  </si>
+  <si>
+    <t>Zhemchuzhina Zoya</t>
+  </si>
+  <si>
+    <t>Brandt Olga</t>
+  </si>
+  <si>
+    <t>Kelner Aleksandr</t>
+  </si>
+  <si>
+    <t>Gildebrandt Olga</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -553,9 +553,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,11 +624,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -904,19 +898,19 @@
         <v>1</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>3</v>
@@ -924,49 +918,49 @@
       <c r="O1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>91</v>
+      <c r="P1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>14</v>
+      <c r="A2" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>50</v>
+      <c r="C2" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>28</v>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="4">
         <v>606</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="K2" s="5">
         <v>18</v>
@@ -975,18 +969,18 @@
         <v>20</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>86</v>
+      <c r="O2" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P2" s="4">
         <v>10.77</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="20">
         <v>0.24640000000000001</v>
       </c>
       <c r="R2" s="4">
@@ -1005,35 +999,35 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
+      <c r="A3" s="33" t="s">
+        <v>83</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>50</v>
+      <c r="C3" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>28</v>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H3" s="4">
         <v>607</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="K3" s="5">
         <v>19</v>
@@ -1042,17 +1036,17 @@
         <v>21</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="21" t="s">
-        <v>86</v>
+      <c r="O3" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P3" s="4">
         <v>10.77</v>
       </c>
-      <c r="Q3" s="21" t="s">
-        <v>89</v>
+      <c r="Q3" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" ref="R3:R21" si="0">IFERROR(
@@ -1070,35 +1064,35 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>16</v>
+      <c r="A4" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>51</v>
+      <c r="C4" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="4">
         <v>167</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="K4" s="5">
         <v>20</v>
@@ -1107,18 +1101,18 @@
         <v>17</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="21" t="s">
-        <v>86</v>
+      <c r="O4" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P4" s="4">
         <v>49.18</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="20">
         <v>0.59240000000000004</v>
       </c>
       <c r="R4" s="4">
@@ -1134,35 +1128,35 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
+      <c r="A5" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>51</v>
+      <c r="C5" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H5" s="4">
         <v>168</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="K5" s="5">
         <v>22</v>
@@ -1174,15 +1168,15 @@
         <v>6</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>86</v>
+        <v>53</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P5" s="4">
         <v>52.06</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="20">
         <v>0.67130000000000001</v>
       </c>
       <c r="R5" s="4">
@@ -1198,35 +1192,35 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
+      <c r="A6" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>52</v>
+      <c r="C6" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H6" s="4">
         <v>380</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>70</v>
+        <v>22</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="K6" s="5">
         <v>18</v>
@@ -1238,15 +1232,15 @@
         <v>6</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P6" s="4">
         <v>76.819999999999993</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="20">
         <v>0.88939999999999997</v>
       </c>
       <c r="R6" s="4">
@@ -1262,35 +1256,35 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>18</v>
+      <c r="A7" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>52</v>
+      <c r="C7" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H7" s="4">
         <v>381</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="K7" s="5">
         <v>18</v>
@@ -1302,15 +1296,15 @@
         <v>6</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P7" s="4">
         <v>76.819999999999993</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="20">
         <v>0.88939999999999997</v>
       </c>
       <c r="R7" s="4">
@@ -1323,35 +1317,35 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>20</v>
+      <c r="A8" t="s">
+        <v>90</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>53</v>
+      <c r="C8" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H8" s="4">
         <v>126</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>72</v>
+        <v>22</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="K8" s="5">
         <v>18</v>
@@ -1363,15 +1357,15 @@
         <v>6</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P8" s="4">
         <v>9.6</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="20">
         <v>0.2717</v>
       </c>
       <c r="R8" s="4">
@@ -1384,35 +1378,35 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>20</v>
+      <c r="A9" t="s">
+        <v>90</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>53</v>
+      <c r="C9" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="4">
         <v>127</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="K9" s="5">
         <v>18</v>
@@ -1424,15 +1418,15 @@
         <v>6</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P9" s="4">
         <v>9.6</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="20">
         <v>0.2717</v>
       </c>
       <c r="R9" s="4">
@@ -1445,35 +1439,35 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
+      <c r="A10" t="s">
+        <v>91</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>54</v>
+      <c r="C10" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H10" s="4">
         <v>258</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="K10" s="5">
         <v>19</v>
@@ -1482,18 +1476,18 @@
         <v>19</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="21" t="s">
-        <v>86</v>
+      <c r="O10" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P10" s="4">
         <v>10.41</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="20">
         <v>0.27310000000000001</v>
       </c>
       <c r="R10" s="4">
@@ -1506,35 +1500,35 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>22</v>
+      <c r="A11" t="s">
+        <v>91</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>54</v>
+      <c r="C11" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H11" s="4">
         <v>259</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>75</v>
+        <v>23</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="K11" s="5">
         <v>19</v>
@@ -1543,16 +1537,16 @@
         <v>19</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="21" t="s">
-        <v>86</v>
+      <c r="O11" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P11" s="4">
         <v>10.41</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="20">
         <v>0.27310000000000001</v>
       </c>
       <c r="R11" s="4">
@@ -1565,55 +1559,55 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>38</v>
+      <c r="A12" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>55</v>
+      <c r="C12" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H12" s="4">
         <v>442</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="15">
+        <v>22</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="14">
         <v>21</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <v>17</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P12" s="4">
         <v>80.900000000000006</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="20">
         <v>0.94239999999999902</v>
       </c>
       <c r="R12" s="4">
@@ -1626,35 +1620,35 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>38</v>
+      <c r="A13" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>55</v>
+      <c r="C13" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H13" s="4">
         <v>443</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="K13" s="5">
         <v>20</v>
@@ -1666,15 +1660,15 @@
         <v>6</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P13" s="4">
         <v>80.900000000000006</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="20">
         <v>0.94239999999999902</v>
       </c>
       <c r="R13" s="4">
@@ -1687,35 +1681,35 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>23</v>
+      <c r="A14" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>56</v>
+      <c r="C14" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H14" s="4">
         <v>138</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>78</v>
+        <v>22</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="K14" s="5">
         <v>20</v>
@@ -1724,18 +1718,18 @@
         <v>20</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>86</v>
+      <c r="O14" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P14" s="4">
         <v>15.32</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="22">
         <v>0.45189999999999902</v>
       </c>
       <c r="R14" s="4">
@@ -1748,35 +1742,35 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>23</v>
+      <c r="A15" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>56</v>
+      <c r="C15" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H15" s="4">
         <v>139</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>79</v>
+        <v>23</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="K15" s="5">
         <v>20</v>
@@ -1785,16 +1779,16 @@
         <v>20</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="21" t="s">
-        <v>86</v>
+      <c r="O15" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P15" s="4">
         <v>15.32</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <v>0.45189999999999902</v>
       </c>
       <c r="R15" s="4">
@@ -1807,35 +1801,35 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>25</v>
+      <c r="A16" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>57</v>
+      <c r="C16" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H16" s="4">
         <v>636</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K16" s="5">
         <v>20</v>
@@ -1844,18 +1838,18 @@
         <v>20</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="21" t="s">
-        <v>86</v>
+      <c r="O16" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P16" s="4">
         <v>13.41</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="20">
         <v>0.35099999999999998</v>
       </c>
       <c r="R16" s="4">
@@ -1868,35 +1862,35 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>25</v>
+      <c r="A17" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>57</v>
+      <c r="C17" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H17" s="4">
         <v>637</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K17" s="5">
         <v>20</v>
@@ -1905,16 +1899,16 @@
         <v>20</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="21" t="s">
-        <v>86</v>
+      <c r="O17" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P17" s="4">
         <v>13.41</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="20">
         <v>0.35099999999999998</v>
       </c>
       <c r="R17" s="4">
@@ -1927,35 +1921,35 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
+      <c r="A18" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>58</v>
+      <c r="C18" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H18" s="4">
         <v>134</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K18" s="5">
         <v>20</v>
@@ -1964,18 +1958,18 @@
         <v>12</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="21" t="s">
-        <v>86</v>
+      <c r="O18" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P18" s="4">
         <v>31.83</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <v>0.4703</v>
       </c>
       <c r="R18" s="4">
@@ -1988,35 +1982,35 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>27</v>
+      <c r="A19" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>58</v>
+      <c r="C19" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H19" s="4">
         <v>135</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K19" s="5">
         <v>20</v>
@@ -2025,16 +2019,16 @@
         <v>20</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="21" t="s">
-        <v>86</v>
+      <c r="O19" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P19" s="4">
         <v>31.83</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="20">
         <v>0.4703</v>
       </c>
       <c r="R19" s="4">
@@ -2047,35 +2041,35 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>45</v>
+      <c r="A20" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>59</v>
+      <c r="C20" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H20" s="4">
         <v>210</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K20" s="5">
         <v>20</v>
@@ -2084,18 +2078,18 @@
         <v>19</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="21" t="s">
-        <v>86</v>
+      <c r="O20" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P20" s="4">
         <v>34.619999999999997</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <v>0.55649999999999999</v>
       </c>
       <c r="R20" s="4">
@@ -2108,53 +2102,53 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>59</v>
+      <c r="A21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="13">
+        <v>40</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="12">
         <v>211</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>31</v>
+      <c r="I21" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="14">
+        <v>76</v>
+      </c>
+      <c r="K21" s="13">
         <v>20</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>14</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="21" t="s">
-        <v>86</v>
+        <v>51</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="P21" s="4">
         <v>34.619999999999997</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="20">
         <v>0.55649999999999999</v>
       </c>
       <c r="R21" s="4">
